--- a/EIEM/Nóminas/nomina1.xlsx
+++ b/EIEM/Nóminas/nomina1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t xml:space="preserve">EMPRESA</t>
   </si>
@@ -31,31 +31,56 @@
     <t xml:space="preserve">Nombre:</t>
   </si>
   <si>
+    <t xml:space="preserve">Todo para tu hogar S.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARGARITA GONZÁLEZ PONCEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Domicilio:</t>
   </si>
   <si>
+    <t xml:space="preserve"> C/ Imprenta Alborada, nº 14, Córdoba.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">DNI:</t>
   </si>
   <si>
+    <t xml:space="preserve">30 213 213</t>
+  </si>
+  <si>
     <t xml:space="preserve">CIF:</t>
   </si>
   <si>
+    <t xml:space="preserve">F 14325678</t>
+  </si>
+  <si>
     <t xml:space="preserve">Número afiliación a la S.S:</t>
   </si>
   <si>
+    <t xml:space="preserve">14 325 43 435</t>
+  </si>
+  <si>
     <t xml:space="preserve">Código Cuenta cotización S.S.:</t>
   </si>
   <si>
+    <t xml:space="preserve">14 453 43533</t>
+  </si>
+  <si>
     <t xml:space="preserve">Categoría o grupo profesional:</t>
   </si>
   <si>
+    <t xml:space="preserve">telefonista</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grupo de cotización:</t>
   </si>
   <si>
     <t xml:space="preserve">Fecha de antigüedad:</t>
   </si>
   <si>
-    <t xml:space="preserve">Periodo de liquidación:</t>
+    <t xml:space="preserve">Periodo de liquidación:Enero</t>
   </si>
   <si>
     <t xml:space="preserve">Fecha inicial</t>
@@ -438,7 +463,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -459,15 +484,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -722,8 +759,8 @@
   </sheetPr>
   <dimension ref="B1:G47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -744,508 +781,535 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="16" t="n">
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="19" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>18</v>
+      <c r="B9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="22"/>
+      <c r="B10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="23" t="n">
+      <c r="E11" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="F11" s="24" t="n">
-        <v>56</v>
-      </c>
-      <c r="G11" s="25" t="n">
+      <c r="F11" s="27" t="n">
+        <v>30</v>
+      </c>
+      <c r="G11" s="28" t="n">
         <f aca="false">E11*F11</f>
-        <v>1680</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="22"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="G12" s="25" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="22"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="22"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="n">
+        <v>180</v>
+      </c>
+      <c r="G14" s="25" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="26" t="n">
-        <v>240</v>
-      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="23"/>
+        <v>33</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="26" t="n">
+        <v>79.16</v>
+      </c>
       <c r="G16" s="26" t="n">
-        <v>280</v>
+        <v>79.16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="22"/>
+      <c r="B17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="22"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="22"/>
+        <v>37</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="22"/>
+        <v>38</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30" t="n">
+      <c r="B22" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33" t="n">
         <f aca="false">SUM(G11:G21)</f>
-        <v>2200</v>
+        <v>1239.16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="22"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20" t="s">
-        <v>18</v>
+      <c r="B24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="7"/>
+      <c r="B25" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32" t="n">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35" t="n">
         <v>0.047</v>
       </c>
-      <c r="G26" s="25" t="n">
+      <c r="G26" s="28" t="n">
         <f aca="false">(G22*F26)</f>
-        <v>103.4</v>
+        <v>58.24052</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="27"/>
-      <c r="F27" s="33" t="n">
+      <c r="D27" s="30"/>
+      <c r="F27" s="36" t="n">
         <v>0.0155</v>
       </c>
-      <c r="G27" s="25" t="n">
+      <c r="G27" s="28" t="n">
         <f aca="false">(G22*F27)</f>
-        <v>34.1</v>
+        <v>19.20698</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="27"/>
-      <c r="F28" s="32" t="n">
+      <c r="D28" s="30"/>
+      <c r="F28" s="35" t="n">
         <v>0.001</v>
       </c>
-      <c r="G28" s="25" t="n">
+      <c r="G28" s="28" t="n">
         <f aca="false">(G22*F28)</f>
-        <v>2.2</v>
+        <v>1.23916</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="F29" s="32" t="n">
+      <c r="F29" s="35" t="n">
         <v>0.1487</v>
       </c>
-      <c r="G29" s="25" t="n">
+      <c r="G29" s="28" t="n">
         <f aca="false">G22*F29</f>
-        <v>327.14</v>
+        <v>184.263092</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="25" t="n">
+      <c r="F30" s="37"/>
+      <c r="G30" s="28" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="4"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="30" t="n">
+      <c r="B32" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="33" t="n">
         <f aca="false">SUM(G29:G30)</f>
-        <v>377.14</v>
+        <v>234.263092</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="4"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="22"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="41" t="n">
+      <c r="B34" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="44" t="n">
         <f aca="false">G22-G32</f>
-        <v>1822.86</v>
+        <v>1004.896908</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="22"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="44"/>
+      <c r="B36" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
+        <v>51</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
+      <c r="B38" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="22"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="46"/>
+      <c r="B40" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="47"/>
+      <c r="B41" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="50"/>
     </row>
     <row r="42" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="47"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="50"/>
     </row>
     <row r="43" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="25" t="n">
+        <v>55</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="28" t="n">
         <f aca="false">G22</f>
-        <v>2200</v>
+        <v>1239.16</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="47"/>
+        <v>56</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="50"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50" t="n">
+      <c r="B45" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53" t="n">
         <f aca="false">G22</f>
-        <v>2200</v>
+        <v>1239.16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:C5"/>
@@ -1272,7 +1336,7 @@
     <mergeCell ref="B40:F40"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
